--- a/data/case1/9/Qlm1_14.xlsx
+++ b/data/case1/9/Qlm1_14.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.1688442908516663</v>
+        <v>-0.22195987269149242</v>
       </c>
       <c r="B1" s="0">
-        <v>0.16876081810897148</v>
+        <v>0.22181564915717189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.11142598538569981</v>
+        <v>-0.14441663946819983</v>
       </c>
       <c r="B2" s="0">
-        <v>0.1112075713504499</v>
+        <v>0.14406028499476786</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.061508637289696466</v>
+        <v>-0.094360620826265063</v>
       </c>
       <c r="B3" s="0">
-        <v>0.061227621404729149</v>
+        <v>0.094004629736936351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.05322762148580118</v>
+        <v>-0.086004629823424494</v>
       </c>
       <c r="B4" s="0">
-        <v>0.052956668093019132</v>
+        <v>0.085693234048500599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.049956668134228721</v>
+        <v>-0.082693234096860024</v>
       </c>
       <c r="B5" s="0">
-        <v>0.049051354199464825</v>
+        <v>0.081647026282139379</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.052636795337383191</v>
+        <v>0.017525123595540038</v>
       </c>
       <c r="B6" s="0">
-        <v>0.052055013254260984</v>
+        <v>-0.017566300070606999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.042055013364944216</v>
+        <v>-0.016674174792608909</v>
       </c>
       <c r="B7" s="0">
-        <v>0.041908520988296782</v>
+        <v>0.016652590317455473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.031908521103422238</v>
+        <v>-0.0066525904402374714</v>
       </c>
       <c r="B8" s="0">
-        <v>0.031632955802736618</v>
+        <v>0.0066409519960028973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.029632955855071863</v>
+        <v>-0.0046409520518246872</v>
       </c>
       <c r="B9" s="0">
-        <v>0.029401483152923902</v>
+        <v>0.0046368674746379845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.027401483210605093</v>
+        <v>-0.0026368675315371348</v>
       </c>
       <c r="B10" s="0">
-        <v>0.027386256169343426</v>
+        <v>0.0026373383659166194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024386256235744419</v>
+        <v>0.00036266156858033582</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024360663414229933</v>
+        <v>-0.00036241061889086268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.020860663486169884</v>
+        <v>-0.034202775232152316</v>
       </c>
       <c r="B12" s="0">
-        <v>0.020668147473708931</v>
+        <v>0.03375012350547113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.017168147551235968</v>
+        <v>-0.030250123584326438</v>
       </c>
       <c r="B13" s="0">
-        <v>0.017080756202534353</v>
+        <v>0.030019310177890723</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090807563202268682</v>
+        <v>-0.022019310298115435</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090525026325396496</v>
+        <v>0.021911780330982289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.008052502691197283</v>
+        <v>-0.020911780393539914</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080342832678548248</v>
+        <v>0.020822622183502837</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060342833360493842</v>
+        <v>-0.018822622257115285</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032653758081977</v>
+        <v>0.018606216371518158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032654454149608</v>
+        <v>-0.016606216449686961</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999128657038</v>
+        <v>0.016554215914565518</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.051334832776024797</v>
+        <v>-0.071399009742613373</v>
       </c>
       <c r="B18" s="0">
-        <v>0.051253975907837201</v>
+        <v>0.071287616025031753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.047253975944550053</v>
+        <v>-0.067287616063246514</v>
       </c>
       <c r="B19" s="0">
-        <v>0.046659351647060365</v>
+        <v>0.066448121762883616</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080163364620879918</v>
+        <v>-0.062448121818587055</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056500003937714</v>
+        <v>0.062206517221330415</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.004005650049706766</v>
+        <v>-0.05820651728086812</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999503361749</v>
+        <v>0.057824049417573242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045698934104207112</v>
+        <v>-0.045699664216016345</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045489816532324312</v>
+        <v>0.045490331592013433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040489816587218286</v>
+        <v>-0.040490331651076517</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097098823593136</v>
+        <v>0.040097186191094814</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097099012010844</v>
+        <v>-0.020097186384215426</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999809050983</v>
+        <v>0.019999999804234392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.0055854410976792224</v>
+        <v>-0.097172149930397467</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.0055852773419644564</v>
+        <v>0.097052811711398235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.031996726429365907</v>
+        <v>-0.094552811771130507</v>
       </c>
       <c r="B26" s="0">
-        <v>0.031982280454172951</v>
+        <v>0.094398359900978335</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.03826139718451449</v>
+        <v>-0.091898359964571519</v>
       </c>
       <c r="B27" s="0">
-        <v>0.038139924529252411</v>
+        <v>0.090978531291595832</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.036139924577491378</v>
+        <v>-0.08897853136866285</v>
       </c>
       <c r="B28" s="0">
-        <v>0.036067077002051917</v>
+        <v>0.088348946603462153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.029067077097590044</v>
+        <v>-0.081348946735354311</v>
       </c>
       <c r="B29" s="0">
-        <v>0.02905340671748835</v>
+        <v>0.081166811282026075</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.030946592730988876</v>
+        <v>-0.021166811873093661</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.031019108315093469</v>
+        <v>0.021021749853983085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.03801910822173582</v>
+        <v>-0.014021749995832167</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.038071085807240834</v>
+        <v>0.014000855321389949</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009685445969723</v>
+        <v>-0.0040008554895614168</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999338302672</v>
+        <v>0.0039999998829394201</v>
       </c>
     </row>
   </sheetData>
